--- a/biology/Botanique/Hotel_du_Vin/Hotel_du_Vin.xlsx
+++ b/biology/Botanique/Hotel_du_Vin/Hotel_du_Vin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hotel du Vin est une chaîne d'hôtels-boutiques de luxe fondée par Gérard Basset et Robin Hutson comportant 19 hôtels à travers le Royaume-Uni. 
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette chaîne d'hôtel a été fondée à Winchester en 1994[1] par Gérard Basset et Robin Hutson qui ont tous deux travaillé précédemment à l'hôtel Chewton Glen respectivement en tant que chef sommelier et directeur général. Le nom "Hotel du Vin" est une référence à l'expertise en matière de vin de Gérard Basset. À l'époque, il détenait le titre de Master Sommelier (1989) avant d'obtenir celui de Master of Wine en 1998[2]. 
-En début d'année 2013, KSL Capital Partners a racheté la chaîne Hotel du Vin ainsi que l'hôtel Malmaison avant de les revendre à Frasers Hospitality en 2015 pour la somme de £363m[3], soit environ 233 millions d'euros. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette chaîne d'hôtel a été fondée à Winchester en 1994 par Gérard Basset et Robin Hutson qui ont tous deux travaillé précédemment à l'hôtel Chewton Glen respectivement en tant que chef sommelier et directeur général. Le nom "Hotel du Vin" est une référence à l'expertise en matière de vin de Gérard Basset. À l'époque, il détenait le titre de Master Sommelier (1989) avant d'obtenir celui de Master of Wine en 1998. 
+En début d'année 2013, KSL Capital Partners a racheté la chaîne Hotel du Vin ainsi que l'hôtel Malmaison avant de les revendre à Frasers Hospitality en 2015 pour la somme de £363m, soit environ 233 millions d'euros. 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Emplacements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ultérieurement, plusieurs hôtels ont été installés à divers emplacements parmi lesquels Birmingham, Brighton, Bristol Avon Gorge, Bristol City Centre, Cambridge, Cheltenham, Édimbourg, Exeter, Glasgow, Harrogate, Henley-on-Thames, Newcastle, Poole, St Andrews, Stratford-upon-Avon, Tunbridge Wells, Wimbledon, Winchester et York. A partir de 2019, la chaîne Hotel du Vin gérait 19 hôtels dans tout le Royaume-Uni, principalement au sein de villes universitaires et de cités-cathédrales[4]. 
-Des plans ont été soumis pour faire du Pearl Assurance House à Manchester un hôtel de 70 chambres comportant également un bar sur le toit[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ultérieurement, plusieurs hôtels ont été installés à divers emplacements parmi lesquels Birmingham, Brighton, Bristol Avon Gorge, Bristol City Centre, Cambridge, Cheltenham, Édimbourg, Exeter, Glasgow, Harrogate, Henley-on-Thames, Newcastle, Poole, St Andrews, Stratford-upon-Avon, Tunbridge Wells, Wimbledon, Winchester et York. A partir de 2019, la chaîne Hotel du Vin gérait 19 hôtels dans tout le Royaume-Uni, principalement au sein de villes universitaires et de cités-cathédrales. 
+Des plans ont été soumis pour faire du Pearl Assurance House à Manchester un hôtel de 70 chambres comportant également un bar sur le toit. 
 </t>
         </is>
       </c>
